--- a/clinical_datasets/sdtm/daibetes/csv/excel/conversion_log.xlsx
+++ b/clinical_datasets/sdtm/daibetes/csv/excel/conversion_log.xlsx
@@ -436,49 +436,49 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>2026-01-08 13:58:06,751 - INFO - === File Conversion Started ===</t>
+          <t>2026-01-08 14:30:44,006 - INFO - === File Conversion Started ===</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-01-08 13:58:06,751 - INFO - Input Folder: C:\Users\ganes\Documents\Kriyababa\GitHub\datasets\clinical_datasets\sdtm\daibetes\csv</t>
+          <t>2026-01-08 14:30:44,007 - INFO - Input Folder: C:\Users\ganes\Documents\Kriyababa\GitHub\datasets\clinical_datasets\sdtm\daibetes\csv</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-01-08 13:58:06,751 - INFO - Output Folder: C:\Users\ganes\Documents\Kriyababa\GitHub\datasets\clinical_datasets\sdtm\daibetes\csv\excel</t>
+          <t>2026-01-08 14:30:44,007 - INFO - Output Folder: C:\Users\ganes\Documents\Kriyababa\GitHub\datasets\clinical_datasets\sdtm\daibetes\csv\excel</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-01-08 13:58:07,007 - INFO - Converted: ae.csv \u2192 excel/ae.xlsx</t>
+          <t>2026-01-08 14:30:44,771 - INFO - Converted: ae.csv \u2192 excel/ae.xlsx</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-01-08 13:58:07,007 - INFO - Skipped directory: archive</t>
+          <t>2026-01-08 14:30:44,772 - INFO - Skipped directory: archive</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-01-08 13:58:07,072 - INFO - Converted: cm.csv \u2192 excel/cm.xlsx</t>
+          <t>2026-01-08 14:30:45,103 - INFO - Converted: cm.csv \u2192 excel/cm.xlsx</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-01-08 13:58:07,114 - INFO - Converted: co.csv \u2192 excel/co.xlsx</t>
+          <t>2026-01-08 14:30:45,275 - INFO - Converted: co.csv \u2192 excel/co.xlsx</t>
         </is>
       </c>
     </row>
